--- a/Data/Input/Consolidated/InputExcelConsolidated_16-02-2023.xlsx
+++ b/Data/Input/Consolidated/InputExcelConsolidated_16-02-2023.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Finance Laptop\Documents\UiPath\DO and Invoice Process Automation\Data\Input\Consolidated\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17BE3656-01C6-442E-B644-CE3DC964B44F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C02CAE8-D493-4840-B809-25CE8498BF26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1788" yWindow="1788" windowWidth="14208" windowHeight="6888" xr2:uid="{5C1F7635-A20C-4134-8B2C-0D9C194D47EB}"/>
+    <workbookView xWindow="2136" yWindow="2136" windowWidth="14208" windowHeight="6888" xr2:uid="{E1603560-8DD0-4891-BB28-EBD04BDE65AB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="36">
   <si>
     <t>Delivery Order No.</t>
   </si>
@@ -74,16 +74,16 @@
     <t>URL</t>
   </si>
   <si>
-    <t>DO230211041</t>
-  </si>
-  <si>
-    <t>JO230211041</t>
+    <t>DO230215048</t>
+  </si>
+  <si>
+    <t>JO230215052</t>
   </si>
   <si>
     <t>KING PLASTIC PTE LTD</t>
   </si>
   <si>
-    <t>13/02/2023 08:00 ~ 13/02/2023 12:00</t>
+    <t>16/02/2023 12:00 ~ 16/02/2023 16:00</t>
   </si>
   <si>
     <t>No</t>
@@ -93,22 +93,45 @@
   </si>
   <si>
     <t>FUJIFILM Business Innovation Corp
-15/02/2023 16:52</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/deliveryOrder/10904</t>
-  </si>
-  <si>
-    <t>DO230211042</t>
-  </si>
-  <si>
-    <t>JO230211042</t>
-  </si>
-  <si>
-    <t>13/02/2023 12:00 ~ 13/02/2023 16:00</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/deliveryOrder/10915</t>
+16/02/2023 16:24</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder/11077</t>
+  </si>
+  <si>
+    <t>DO230215047</t>
+  </si>
+  <si>
+    <t>JO230215051</t>
+  </si>
+  <si>
+    <t>16/02/2023 08:00 ~ 16/02/2023 12:00</t>
+  </si>
+  <si>
+    <t>Meixuan Tan
+16/02/2023 16:18</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder/11076</t>
+  </si>
+  <si>
+    <t>DO230211040</t>
+  </si>
+  <si>
+    <t>JO230211040</t>
+  </si>
+  <si>
+    <t>QINGJIAN INT (SP) GRP DEV CO PL</t>
+  </si>
+  <si>
+    <t>13/02/2023 08:00 ~ 13/02/2023 20:00</t>
+  </si>
+  <si>
+    <t>FUJIFILM Business Innovation Corp
+16/02/2023 01:01</t>
+  </si>
+  <si>
+    <t>https://hhtc.insightservicing.sg/deliveryOrder/10918</t>
   </si>
   <si>
     <t>DO230209035</t>
@@ -117,33 +140,14 @@
     <t>JO230209037</t>
   </si>
   <si>
-    <t>QINGJIAN INT (SP) GRP DEV CO PL</t>
-  </si>
-  <si>
     <t>09/02/2023 17:00 ~ 09/02/2023 22:00</t>
   </si>
   <si>
     <t>FUJIFILM Business Innovation Corp
-15/02/2023 16:54</t>
+16/02/2023 01:00</t>
   </si>
   <si>
     <t>https://hhtc.insightservicing.sg/deliveryOrder/10769</t>
-  </si>
-  <si>
-    <t>DO230211040</t>
-  </si>
-  <si>
-    <t>JO230211040</t>
-  </si>
-  <si>
-    <t>13/02/2023 08:00 ~ 13/02/2023 20:00</t>
-  </si>
-  <si>
-    <t>FUJIFILM Business Innovation Corp
-15/02/2023 16:53</t>
-  </si>
-  <si>
-    <t>https://hhtc.insightservicing.sg/deliveryOrder/10918</t>
   </si>
 </sst>
 </file>
@@ -497,7 +501,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7CEBBD6-0B87-4D7C-B37A-417F880E82E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22D33E36-F96D-45B5-8774-CCED1929F29C}">
   <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -568,7 +572,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>20</v>
       </c>
@@ -588,24 +592,24 @@
         <v>17</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G4" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="I4" t="s">
         <v>16</v>
@@ -614,24 +618,24 @@
         <v>17</v>
       </c>
       <c r="K4" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="G5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="I5" t="s">
         <v>16</v>
@@ -640,10 +644,10 @@
         <v>17</v>
       </c>
       <c r="K5" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="L5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
